--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08417966666666667</v>
+        <v>0.06579333333333333</v>
       </c>
       <c r="H2">
-        <v>0.252539</v>
+        <v>0.19738</v>
       </c>
       <c r="I2">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="J2">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3397146666666667</v>
+        <v>2.824231</v>
       </c>
       <c r="N2">
-        <v>1.019144</v>
+        <v>8.472693</v>
       </c>
       <c r="O2">
-        <v>0.001876105469878586</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P2">
-        <v>0.001876105469878587</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q2">
-        <v>0.02859706740177778</v>
+        <v>0.1858155715933333</v>
       </c>
       <c r="R2">
-        <v>0.257373606616</v>
+        <v>1.67234014434</v>
       </c>
       <c r="S2">
-        <v>5.536926482438729E-06</v>
+        <v>8.897973488622969E-05</v>
       </c>
       <c r="T2">
-        <v>5.53692648243873E-06</v>
+        <v>8.897973488622969E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08417966666666667</v>
+        <v>0.06579333333333333</v>
       </c>
       <c r="H3">
-        <v>0.252539</v>
+        <v>0.19738</v>
       </c>
       <c r="I3">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="J3">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>541.0724789999999</v>
       </c>
       <c r="O3">
-        <v>0.9960408317692755</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P3">
-        <v>0.9960408317692757</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q3">
-        <v>15.18243364157567</v>
+        <v>11.86632065611333</v>
       </c>
       <c r="R3">
-        <v>136.641902774181</v>
+        <v>106.79688590502</v>
       </c>
       <c r="S3">
-        <v>0.002939602782230845</v>
+        <v>0.00568231207429032</v>
       </c>
       <c r="T3">
-        <v>0.002939602782230846</v>
+        <v>0.005682312074290321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +667,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08417966666666667</v>
+        <v>0.06579333333333333</v>
       </c>
       <c r="H4">
-        <v>0.252539</v>
+        <v>0.19738</v>
       </c>
       <c r="I4">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="J4">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07065566666666667</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N4">
-        <v>0.211967</v>
+        <v>1.453856</v>
       </c>
       <c r="O4">
-        <v>0.000390202413136666</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P4">
-        <v>0.0003902024131366661</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q4">
-        <v>0.005947770468111111</v>
+        <v>0.03188467747555555</v>
       </c>
       <c r="R4">
-        <v>0.05352993421300001</v>
+        <v>0.28696209728</v>
       </c>
       <c r="S4">
-        <v>1.151599475347046E-06</v>
+        <v>1.526831214618001E-05</v>
       </c>
       <c r="T4">
-        <v>1.151599475347047E-06</v>
+        <v>1.526831214618001E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.08417966666666667</v>
+        <v>0.06579333333333333</v>
       </c>
       <c r="H5">
-        <v>0.252539</v>
+        <v>0.19738</v>
       </c>
       <c r="I5">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="J5">
-        <v>0.0029512874256462</v>
+        <v>0.005789037309022701</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,90 +747,90 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.240756</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N5">
-        <v>0.722268</v>
+        <v>0.235879</v>
       </c>
       <c r="O5">
-        <v>0.001329597137910116</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P5">
-        <v>0.001329597137910116</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q5">
-        <v>0.020266759828</v>
+        <v>0.005173088557777778</v>
       </c>
       <c r="R5">
-        <v>0.182400838452</v>
+        <v>0.04655779702</v>
       </c>
       <c r="S5">
-        <v>3.924023314289301E-06</v>
+        <v>2.477187699970832E-06</v>
       </c>
       <c r="T5">
-        <v>3.924023314289302E-06</v>
+        <v>2.477187699970833E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.08417966666666667</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H6">
-        <v>0.252539</v>
+        <v>20.379326</v>
       </c>
       <c r="I6">
-        <v>0.0029512874256462</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="J6">
-        <v>0.0029512874256462</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.06577766666666666</v>
+        <v>2.824231</v>
       </c>
       <c r="N6">
-        <v>0.197333</v>
+        <v>8.472693</v>
       </c>
       <c r="O6">
-        <v>0.000363263209799156</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P6">
-        <v>0.0003632632097991561</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q6">
-        <v>0.005537142054111111</v>
+        <v>19.18530808276866</v>
       </c>
       <c r="R6">
-        <v>0.04983427848700001</v>
+        <v>172.667772744918</v>
       </c>
       <c r="S6">
-        <v>1.072094143280127E-06</v>
+        <v>0.009187085949133891</v>
       </c>
       <c r="T6">
-        <v>1.072094143280127E-06</v>
+        <v>0.009187085949133892</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.793108666666668</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H7">
         <v>20.379326</v>
       </c>
       <c r="I7">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="J7">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3397146666666667</v>
+        <v>180.357493</v>
       </c>
       <c r="N7">
-        <v>1.019144</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O7">
-        <v>0.001876105469878586</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P7">
-        <v>0.001876105469878587</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q7">
-        <v>2.307718646327111</v>
+        <v>1225.188048796573</v>
       </c>
       <c r="R7">
-        <v>20.769467816944</v>
+        <v>11026.69243916915</v>
       </c>
       <c r="S7">
-        <v>0.0004468174413601548</v>
+        <v>0.5866941442684094</v>
       </c>
       <c r="T7">
-        <v>0.0004468174413601549</v>
+        <v>0.5866941442684094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.793108666666668</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H8">
         <v>20.379326</v>
       </c>
       <c r="I8">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="J8">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>180.357493</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N8">
-        <v>541.0724789999999</v>
+        <v>1.453856</v>
       </c>
       <c r="O8">
-        <v>0.9960408317692755</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P8">
-        <v>0.9960408317692757</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q8">
-        <v>1225.188048796573</v>
+        <v>3.292067264561778</v>
       </c>
       <c r="R8">
-        <v>11026.69243916915</v>
+        <v>29.628605381056</v>
       </c>
       <c r="S8">
-        <v>0.2372192944835824</v>
+        <v>0.001576440929662388</v>
       </c>
       <c r="T8">
-        <v>0.2372192944835824</v>
+        <v>0.001576440929662388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.793108666666668</v>
+        <v>6.793108666666666</v>
       </c>
       <c r="H9">
         <v>20.379326</v>
       </c>
       <c r="I9">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="J9">
-        <v>0.2381622187739109</v>
+        <v>0.5977134387817223</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,33 +995,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07065566666666667</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N9">
-        <v>0.211967</v>
+        <v>0.235879</v>
       </c>
       <c r="O9">
-        <v>0.000390202413136666</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P9">
-        <v>0.0003902024131366661</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q9">
-        <v>0.4799716215824446</v>
+        <v>0.5341172263948889</v>
       </c>
       <c r="R9">
-        <v>4.319744594242001</v>
+        <v>4.807055037554</v>
       </c>
       <c r="S9">
-        <v>9.293147248356262E-05</v>
+        <v>0.000255767634516647</v>
       </c>
       <c r="T9">
-        <v>9.293147248356263E-05</v>
+        <v>0.000255767634516647</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,117 +1030,117 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>6.793108666666668</v>
+        <v>0.2764333333333333</v>
       </c>
       <c r="H10">
-        <v>20.379326</v>
+        <v>0.8292999999999999</v>
       </c>
       <c r="I10">
-        <v>0.2381622187739109</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="J10">
-        <v>0.2381622187739109</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.240756</v>
+        <v>2.824231</v>
       </c>
       <c r="N10">
-        <v>0.722268</v>
+        <v>8.472693</v>
       </c>
       <c r="O10">
-        <v>0.001329597137910116</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P10">
-        <v>0.001329597137910116</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q10">
-        <v>1.635481670152</v>
+        <v>0.7807115894333332</v>
       </c>
       <c r="R10">
-        <v>14.719335031368</v>
+        <v>7.026404304899999</v>
       </c>
       <c r="S10">
-        <v>0.0003166598044401148</v>
+        <v>0.0003738519310018759</v>
       </c>
       <c r="T10">
-        <v>0.0003166598044401148</v>
+        <v>0.0003738519310018759</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>6.793108666666668</v>
+        <v>0.2764333333333333</v>
       </c>
       <c r="H11">
-        <v>20.379326</v>
+        <v>0.8292999999999999</v>
       </c>
       <c r="I11">
-        <v>0.2381622187739109</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="J11">
-        <v>0.2381622187739109</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.06577766666666666</v>
+        <v>180.357493</v>
       </c>
       <c r="N11">
-        <v>0.197333</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O11">
-        <v>0.000363263209799156</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P11">
-        <v>0.0003632632097991561</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q11">
-        <v>0.4468348375064445</v>
+        <v>49.85682298163332</v>
       </c>
       <c r="R11">
-        <v>4.021513537558</v>
+        <v>448.7114068346999</v>
       </c>
       <c r="S11">
-        <v>8.65155720446997E-05</v>
+        <v>0.02387446247446024</v>
       </c>
       <c r="T11">
-        <v>8.651557204469972E-05</v>
+        <v>0.02387446247446024</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.846036666666667</v>
+        <v>0.2764333333333333</v>
       </c>
       <c r="H12">
-        <v>11.53811</v>
+        <v>0.8292999999999999</v>
       </c>
       <c r="I12">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="J12">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3397146666666667</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N12">
-        <v>1.019144</v>
+        <v>1.453856</v>
       </c>
       <c r="O12">
-        <v>0.001876105469878586</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P12">
-        <v>0.001876105469878587</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q12">
-        <v>1.306555064204444</v>
+        <v>0.1339647534222222</v>
       </c>
       <c r="R12">
-        <v>11.75899557784</v>
+        <v>1.2056827808</v>
       </c>
       <c r="S12">
-        <v>0.0002529734687168758</v>
+        <v>6.415042690661203E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002529734687168759</v>
+        <v>6.415042690661203E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.846036666666667</v>
+        <v>0.2764333333333333</v>
       </c>
       <c r="H13">
-        <v>11.53811</v>
+        <v>0.8292999999999999</v>
       </c>
       <c r="I13">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="J13">
-        <v>0.1348396840041446</v>
+        <v>0.02432287283601442</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>180.357493</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N13">
-        <v>541.0724789999999</v>
+        <v>0.235879</v>
       </c>
       <c r="O13">
-        <v>0.9960408317692755</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P13">
-        <v>0.9960408317692757</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q13">
-        <v>693.6615311860766</v>
+        <v>0.02173493941111111</v>
       </c>
       <c r="R13">
-        <v>6242.953780674689</v>
+        <v>0.1956144547</v>
       </c>
       <c r="S13">
-        <v>0.1343058310109945</v>
+        <v>1.040800364568756E-05</v>
       </c>
       <c r="T13">
-        <v>0.1343058310109945</v>
+        <v>1.040800364568757E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.846036666666667</v>
+        <v>0.275833</v>
       </c>
       <c r="H14">
-        <v>11.53811</v>
+        <v>0.827499</v>
       </c>
       <c r="I14">
-        <v>0.1348396840041446</v>
+        <v>0.02427005058353925</v>
       </c>
       <c r="J14">
-        <v>0.1348396840041446</v>
+        <v>0.02427005058353924</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.07065566666666667</v>
+        <v>2.824231</v>
       </c>
       <c r="N14">
-        <v>0.211967</v>
+        <v>8.472693</v>
       </c>
       <c r="O14">
-        <v>0.000390202413136666</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P14">
-        <v>0.0003902024131366661</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q14">
-        <v>0.2717442847077778</v>
+        <v>0.7790161094229999</v>
       </c>
       <c r="R14">
-        <v>2.44569856237</v>
+        <v>7.011144984806999</v>
       </c>
       <c r="S14">
-        <v>5.261477008500273E-05</v>
+        <v>0.0003730400326204285</v>
       </c>
       <c r="T14">
-        <v>5.261477008500275E-05</v>
+        <v>0.0003730400326204285</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.846036666666667</v>
+        <v>0.275833</v>
       </c>
       <c r="H15">
-        <v>11.53811</v>
+        <v>0.827499</v>
       </c>
       <c r="I15">
-        <v>0.1348396840041446</v>
+        <v>0.02427005058353925</v>
       </c>
       <c r="J15">
-        <v>0.1348396840041446</v>
+        <v>0.02427005058353924</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.240756</v>
+        <v>180.357493</v>
       </c>
       <c r="N15">
-        <v>0.722268</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O15">
-        <v>0.001329597137910116</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P15">
-        <v>0.001329597137910116</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q15">
-        <v>0.92595640372</v>
+        <v>49.74854836666899</v>
       </c>
       <c r="R15">
-        <v>8.33360763348</v>
+        <v>447.7369353000209</v>
       </c>
       <c r="S15">
-        <v>0.0001792824579286151</v>
+        <v>0.02382261403973638</v>
       </c>
       <c r="T15">
-        <v>0.0001792824579286151</v>
+        <v>0.02382261403973638</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.846036666666667</v>
+        <v>0.275833</v>
       </c>
       <c r="H16">
-        <v>11.53811</v>
+        <v>0.827499</v>
       </c>
       <c r="I16">
-        <v>0.1348396840041446</v>
+        <v>0.02427005058353925</v>
       </c>
       <c r="J16">
-        <v>0.1348396840041446</v>
+        <v>0.02427005058353924</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.06577766666666666</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N16">
-        <v>0.197333</v>
+        <v>1.453856</v>
       </c>
       <c r="O16">
-        <v>0.000363263209799156</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P16">
-        <v>0.0003632632097991561</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q16">
-        <v>0.2529833178477778</v>
+        <v>0.1336738206826667</v>
       </c>
       <c r="R16">
-        <v>2.27684986063</v>
+        <v>1.203064386144</v>
       </c>
       <c r="S16">
-        <v>4.898229641964949E-05</v>
+        <v>6.401111071360733E-05</v>
       </c>
       <c r="T16">
-        <v>4.898229641964951E-05</v>
+        <v>6.401111071360733E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.668479</v>
+        <v>0.275833</v>
       </c>
       <c r="H17">
-        <v>38.005437</v>
+        <v>0.827499</v>
       </c>
       <c r="I17">
-        <v>0.4441490950874473</v>
+        <v>0.02427005058353925</v>
       </c>
       <c r="J17">
-        <v>0.4441490950874473</v>
+        <v>0.02427005058353924</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.3397146666666667</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N17">
-        <v>1.019144</v>
+        <v>0.235879</v>
       </c>
       <c r="O17">
-        <v>0.001876105469878586</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P17">
-        <v>0.001876105469878587</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q17">
-        <v>4.303668120658666</v>
+        <v>0.02168773740233334</v>
       </c>
       <c r="R17">
-        <v>38.733013085928</v>
+        <v>0.195189636621</v>
       </c>
       <c r="S17">
-        <v>0.0008332705467351842</v>
+        <v>1.038540046883253E-05</v>
       </c>
       <c r="T17">
-        <v>0.0008332705467351844</v>
+        <v>1.038540046883253E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.668479</v>
+        <v>0.5077033333333333</v>
       </c>
       <c r="H18">
-        <v>38.005437</v>
+        <v>1.52311</v>
       </c>
       <c r="I18">
-        <v>0.4441490950874473</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="J18">
-        <v>0.4441490950874473</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>180.357493</v>
+        <v>2.824231</v>
       </c>
       <c r="N18">
-        <v>541.0724789999999</v>
+        <v>8.472693</v>
       </c>
       <c r="O18">
-        <v>0.9960408317692755</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P18">
-        <v>0.9960408317692757</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q18">
-        <v>2284.855112563147</v>
+        <v>1.433871492803333</v>
       </c>
       <c r="R18">
-        <v>20563.69601306832</v>
+        <v>12.90484343523</v>
       </c>
       <c r="S18">
-        <v>0.442390634100472</v>
+        <v>0.0006866243996482181</v>
       </c>
       <c r="T18">
-        <v>0.4423906341004721</v>
+        <v>0.0006866243996482181</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,51 +1597,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.668479</v>
+        <v>0.5077033333333333</v>
       </c>
       <c r="H19">
-        <v>38.005437</v>
+        <v>1.52311</v>
       </c>
       <c r="I19">
-        <v>0.4441490950874473</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="J19">
-        <v>0.4441490950874473</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.07065566666666667</v>
+        <v>180.357493</v>
       </c>
       <c r="N19">
-        <v>0.211967</v>
+        <v>541.0724789999999</v>
       </c>
       <c r="O19">
-        <v>0.000390202413136666</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P19">
-        <v>0.0003902024131366661</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q19">
-        <v>0.8950998293976667</v>
+        <v>91.56810038774331</v>
       </c>
       <c r="R19">
-        <v>8.055898464579</v>
+        <v>824.1129034896899</v>
       </c>
       <c r="S19">
-        <v>0.0001733080486955885</v>
+        <v>0.04384834503735094</v>
       </c>
       <c r="T19">
-        <v>0.0001733080486955885</v>
+        <v>0.04384834503735095</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,51 +1659,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.668479</v>
+        <v>0.5077033333333333</v>
       </c>
       <c r="H20">
-        <v>38.005437</v>
+        <v>1.52311</v>
       </c>
       <c r="I20">
-        <v>0.4441490950874473</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="J20">
-        <v>0.4441490950874473</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.240756</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N20">
-        <v>0.722268</v>
+        <v>1.453856</v>
       </c>
       <c r="O20">
-        <v>0.001329597137910116</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P20">
-        <v>0.001329597137910116</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q20">
-        <v>3.050012330124</v>
+        <v>0.2460425124622222</v>
       </c>
       <c r="R20">
-        <v>27.450110971116</v>
+        <v>2.21438261216</v>
       </c>
       <c r="S20">
-        <v>0.0005905393656336377</v>
+        <v>0.0001178200370501988</v>
       </c>
       <c r="T20">
-        <v>0.0005905393656336378</v>
+        <v>0.0001178200370501988</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.668479</v>
+        <v>0.5077033333333333</v>
       </c>
       <c r="H21">
-        <v>38.005437</v>
+        <v>1.52311</v>
       </c>
       <c r="I21">
-        <v>0.4441490950874473</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="J21">
-        <v>0.4441490950874473</v>
+        <v>0.04467190503468216</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.06577766666666666</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N21">
-        <v>0.197333</v>
+        <v>0.235879</v>
       </c>
       <c r="O21">
-        <v>0.000363263209799156</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P21">
-        <v>0.0003632632097991561</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q21">
-        <v>0.8333029888356667</v>
+        <v>0.03991885152111111</v>
       </c>
       <c r="R21">
-        <v>7.499726899521001</v>
+        <v>0.35926966369</v>
       </c>
       <c r="S21">
-        <v>0.0001613430259108566</v>
+        <v>1.911556063280259E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001613430259108567</v>
+        <v>1.911556063280259E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4665426666666666</v>
+        <v>3.446288</v>
       </c>
       <c r="H22">
-        <v>1.399628</v>
+        <v>10.338864</v>
       </c>
       <c r="I22">
-        <v>0.01635669942853318</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="J22">
-        <v>0.01635669942853318</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3397146666666667</v>
+        <v>2.824231</v>
       </c>
       <c r="N22">
-        <v>1.019144</v>
+        <v>8.472693</v>
       </c>
       <c r="O22">
-        <v>0.001876105469878586</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="P22">
-        <v>0.001876105469878587</v>
+        <v>0.01537038546073063</v>
       </c>
       <c r="Q22">
-        <v>0.1584913864924444</v>
+        <v>9.733113404527998</v>
       </c>
       <c r="R22">
-        <v>1.426422478432</v>
+        <v>87.59802064075198</v>
       </c>
       <c r="S22">
-        <v>3.068689326703104E-05</v>
+        <v>0.004660803413439984</v>
       </c>
       <c r="T22">
-        <v>3.068689326703105E-05</v>
+        <v>0.004660803413439985</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4665426666666666</v>
+        <v>3.446288</v>
       </c>
       <c r="H23">
-        <v>1.399628</v>
+        <v>10.338864</v>
       </c>
       <c r="I23">
-        <v>0.01635669942853318</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="J23">
-        <v>0.01635669942853318</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>541.0724789999999</v>
       </c>
       <c r="O23">
-        <v>0.9960408317692755</v>
+        <v>0.9815642516993213</v>
       </c>
       <c r="P23">
-        <v>0.9960408317692757</v>
+        <v>0.9815642516993214</v>
       </c>
       <c r="Q23">
-        <v>84.14446573753465</v>
+        <v>621.5638638359839</v>
       </c>
       <c r="R23">
-        <v>757.3001916378118</v>
+        <v>5594.074774523855</v>
       </c>
       <c r="S23">
-        <v>0.01629194050379622</v>
+        <v>0.297642373805074</v>
       </c>
       <c r="T23">
-        <v>0.01629194050379622</v>
+        <v>0.2976423738050741</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,61 +1907,61 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4665426666666666</v>
+        <v>3.446288</v>
       </c>
       <c r="H24">
-        <v>1.399628</v>
+        <v>10.338864</v>
       </c>
       <c r="I24">
-        <v>0.01635669942853318</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="J24">
-        <v>0.01635669942853318</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.07065566666666667</v>
+        <v>0.4846186666666667</v>
       </c>
       <c r="N24">
-        <v>0.211967</v>
+        <v>1.453856</v>
       </c>
       <c r="O24">
-        <v>0.000390202413136666</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="P24">
-        <v>0.0003902024131366661</v>
+        <v>0.002637452711244936</v>
       </c>
       <c r="Q24">
-        <v>0.03296388314177778</v>
+        <v>1.670135495509333</v>
       </c>
       <c r="R24">
-        <v>0.296674948276</v>
+        <v>15.031219459584</v>
       </c>
       <c r="S24">
-        <v>6.382423587964772E-06</v>
+        <v>0.0007997618947659502</v>
       </c>
       <c r="T24">
-        <v>6.382423587964773E-06</v>
+        <v>0.0007997618947659503</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4665426666666666</v>
+        <v>3.446288</v>
       </c>
       <c r="H25">
-        <v>1.399628</v>
+        <v>10.338864</v>
       </c>
       <c r="I25">
-        <v>0.01635669942853318</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="J25">
-        <v>0.01635669942853318</v>
+        <v>0.3032326954550191</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,400 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.240756</v>
+        <v>0.07862633333333334</v>
       </c>
       <c r="N25">
-        <v>0.722268</v>
+        <v>0.235879</v>
       </c>
       <c r="O25">
-        <v>0.001329597137910116</v>
+        <v>0.0004279101287030794</v>
       </c>
       <c r="P25">
-        <v>0.001329597137910116</v>
+        <v>0.0004279101287030795</v>
       </c>
       <c r="Q25">
-        <v>0.112322946256</v>
+        <v>0.2709689890506666</v>
       </c>
       <c r="R25">
-        <v>1.010906516304</v>
+        <v>2.438720901456</v>
       </c>
       <c r="S25">
-        <v>2.174782074583374E-05</v>
+        <v>0.0001297563417391389</v>
       </c>
       <c r="T25">
-        <v>2.174782074583374E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.4665426666666666</v>
-      </c>
-      <c r="H26">
-        <v>1.399628</v>
-      </c>
-      <c r="I26">
-        <v>0.01635669942853318</v>
-      </c>
-      <c r="J26">
-        <v>0.01635669942853318</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.06577766666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.197333</v>
-      </c>
-      <c r="O26">
-        <v>0.000363263209799156</v>
-      </c>
-      <c r="P26">
-        <v>0.0003632632097991561</v>
-      </c>
-      <c r="Q26">
-        <v>0.03068808801377777</v>
-      </c>
-      <c r="R26">
-        <v>0.276192792124</v>
-      </c>
-      <c r="S26">
-        <v>5.941787136128983E-06</v>
-      </c>
-      <c r="T26">
-        <v>5.941787136128985E-06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>4.664685666666666</v>
-      </c>
-      <c r="H27">
-        <v>13.994057</v>
-      </c>
-      <c r="I27">
-        <v>0.1635410152803178</v>
-      </c>
-      <c r="J27">
-        <v>0.1635410152803178</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.3397146666666667</v>
-      </c>
-      <c r="N27">
-        <v>1.019144</v>
-      </c>
-      <c r="O27">
-        <v>0.001876105469878586</v>
-      </c>
-      <c r="P27">
-        <v>0.001876105469878587</v>
-      </c>
-      <c r="Q27">
-        <v>1.584662136356444</v>
-      </c>
-      <c r="R27">
-        <v>14.261959227208</v>
-      </c>
-      <c r="S27">
-        <v>0.0003068201933169018</v>
-      </c>
-      <c r="T27">
-        <v>0.0003068201933169018</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>4.664685666666666</v>
-      </c>
-      <c r="H28">
-        <v>13.994057</v>
-      </c>
-      <c r="I28">
-        <v>0.1635410152803178</v>
-      </c>
-      <c r="J28">
-        <v>0.1635410152803178</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>180.357493</v>
-      </c>
-      <c r="N28">
-        <v>541.0724789999999</v>
-      </c>
-      <c r="O28">
-        <v>0.9960408317692755</v>
-      </c>
-      <c r="P28">
-        <v>0.9960408317692757</v>
-      </c>
-      <c r="Q28">
-        <v>841.3110124730335</v>
-      </c>
-      <c r="R28">
-        <v>7571.799112257301</v>
-      </c>
-      <c r="S28">
-        <v>0.1628935288881996</v>
-      </c>
-      <c r="T28">
-        <v>0.1628935288881996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>4.664685666666666</v>
-      </c>
-      <c r="H29">
-        <v>13.994057</v>
-      </c>
-      <c r="I29">
-        <v>0.1635410152803178</v>
-      </c>
-      <c r="J29">
-        <v>0.1635410152803178</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M29">
-        <v>0.07065566666666667</v>
-      </c>
-      <c r="N29">
-        <v>0.211967</v>
-      </c>
-      <c r="O29">
-        <v>0.000390202413136666</v>
-      </c>
-      <c r="P29">
-        <v>0.0003902024131366661</v>
-      </c>
-      <c r="Q29">
-        <v>0.3295864755687778</v>
-      </c>
-      <c r="R29">
-        <v>2.966278280119</v>
-      </c>
-      <c r="S29">
-        <v>6.381409880920039E-05</v>
-      </c>
-      <c r="T29">
-        <v>6.381409880920041E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>4.664685666666666</v>
-      </c>
-      <c r="H30">
-        <v>13.994057</v>
-      </c>
-      <c r="I30">
-        <v>0.1635410152803178</v>
-      </c>
-      <c r="J30">
-        <v>0.1635410152803178</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M30">
-        <v>0.240756</v>
-      </c>
-      <c r="N30">
-        <v>0.722268</v>
-      </c>
-      <c r="O30">
-        <v>0.001329597137910116</v>
-      </c>
-      <c r="P30">
-        <v>0.001329597137910116</v>
-      </c>
-      <c r="Q30">
-        <v>1.123051062364</v>
-      </c>
-      <c r="R30">
-        <v>10.107459561276</v>
-      </c>
-      <c r="S30">
-        <v>0.0002174436658476251</v>
-      </c>
-      <c r="T30">
-        <v>0.0002174436658476251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>4.664685666666666</v>
-      </c>
-      <c r="H31">
-        <v>13.994057</v>
-      </c>
-      <c r="I31">
-        <v>0.1635410152803178</v>
-      </c>
-      <c r="J31">
-        <v>0.1635410152803178</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.06577766666666666</v>
-      </c>
-      <c r="N31">
-        <v>0.197333</v>
-      </c>
-      <c r="O31">
-        <v>0.000363263209799156</v>
-      </c>
-      <c r="P31">
-        <v>0.0003632632097991561</v>
-      </c>
-      <c r="Q31">
-        <v>0.3068321388867777</v>
-      </c>
-      <c r="R31">
-        <v>2.761489249981</v>
-      </c>
-      <c r="S31">
-        <v>5.940843414454108E-05</v>
-      </c>
-      <c r="T31">
-        <v>5.94084341445411E-05</v>
+        <v>0.0001297563417391389</v>
       </c>
     </row>
   </sheetData>
